--- a/datalab/1_apps/linux/sjudas/confinamento_batidas_trendline/dados_processados.xlsx
+++ b/datalab/1_apps/linux/sjudas/confinamento_batidas_trendline/dados_processados.xlsx
@@ -41,8 +41,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF9999"/>
-        <bgColor rgb="00FF9999"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,8 +56,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FF9999"/>
+        <bgColor rgb="00FF9999"/>
       </patternFill>
     </fill>
   </fills>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,4402 +475,4730 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28395</v>
+        <v>28831</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3.46</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28396</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>3.99</v>
+        <v>28832</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28397</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>2.08</v>
+        <v>28833</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>21.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28398</v>
+        <v>28834</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2.31</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28399</v>
+        <v>28835</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1.62</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>28400</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>3.41</v>
+        <v>28836</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28401</v>
+        <v>28837</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28402</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>3.15</v>
+        <v>28838</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28403</v>
+        <v>28839</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3.21</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28404</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>3.45</v>
+        <v>28840</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28405</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>3.68</v>
+        <v>28841</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>16.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>28406</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>1.68</v>
+        <v>28842</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>4.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>28407</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>1.4</v>
+        <v>28843</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>6.77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28408</v>
+        <v>28844</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.79</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>28409</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>2.28</v>
+        <v>28845</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28410</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>2.96</v>
+        <v>28846</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>28411</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>13.4</v>
+        <v>28847</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28412</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>7.38</v>
+        <v>28848</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>28413</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>3.43</v>
+        <v>28849</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28414</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>3.94</v>
+        <v>28850</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>28415</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>1.97</v>
+        <v>28851</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28416</v>
+        <v>28852</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.02</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>28417</v>
+        <v>28853</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.65</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28418</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>6.58</v>
+        <v>28854</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28419</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>3.64</v>
+        <v>28855</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>3.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28420</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>3.14</v>
+        <v>28856</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28421</v>
+        <v>28857</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28422</v>
+        <v>28858</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28423</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>1.35</v>
+        <v>28859</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28425</v>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>38.7</v>
+        <v>28860</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>28426</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>14.31</v>
+        <v>28861</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28427</v>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>85.34</v>
+        <v>28862</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>28428</v>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>19.09</v>
+        <v>28863</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28430</v>
-      </c>
-      <c r="B35" s="4" t="n">
-        <v>21.61</v>
+        <v>28864</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>28431</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>2.65</v>
+        <v>28865</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>28432</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>2.95</v>
+        <v>28866</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>8.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28433</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>4.85</v>
+        <v>28867</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28434</v>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>8.26</v>
+        <v>28868</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28435</v>
+        <v>28869</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.16</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>28436</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>4.83</v>
+        <v>28870</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>28437</v>
-      </c>
-      <c r="B42" s="4" t="n">
-        <v>10.95</v>
+        <v>28871</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>28438</v>
-      </c>
-      <c r="B43" s="4" t="n">
-        <v>21.13</v>
+        <v>28872</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28439</v>
+        <v>28873</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.87</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28440</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>1.21</v>
+        <v>28874</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>28441</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>3</v>
+        <v>28875</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>28442</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>2.82</v>
+        <v>28876</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>13.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>28443</v>
+        <v>28877</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>1.13</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>28444</v>
+        <v>28878</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>28445</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>3.34</v>
+        <v>28879</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>28446</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>2.46</v>
+        <v>28880</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>6.98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28447</v>
-      </c>
-      <c r="B52" s="4" t="n">
-        <v>11.66</v>
+        <v>28881</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>28448</v>
-      </c>
-      <c r="B53" s="4" t="n">
-        <v>8.44</v>
+        <v>28882</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28449</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>2.13</v>
+        <v>28883</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>14.81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28450</v>
+        <v>28884</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1.22</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28451</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>2.58</v>
+        <v>28885</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>3.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28452</v>
+        <v>28886</v>
       </c>
       <c r="B57" s="4" t="n">
-        <v>11.5</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28453</v>
+        <v>28887</v>
       </c>
       <c r="B58" s="4" t="n">
-        <v>9.74</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>28454</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>3.04</v>
+        <v>28888</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>28455</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>3.4</v>
+        <v>28889</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>28456</v>
-      </c>
-      <c r="B61" s="4" t="n">
-        <v>7.88</v>
+        <v>28890</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>28457</v>
-      </c>
-      <c r="B62" s="4" t="n">
-        <v>13.33</v>
+        <v>28891</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>28458</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>3.09</v>
+        <v>28892</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>28459</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>4.78</v>
+        <v>28893</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>7.22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>28460</v>
-      </c>
-      <c r="B65" s="3" t="n">
-        <v>2.8</v>
+        <v>28894</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>28461</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>3.89</v>
+        <v>28895</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>28462</v>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>1.02</v>
+        <v>28896</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>4.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28463</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>3.49</v>
+        <v>28897</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>28464</v>
+        <v>28898</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28465</v>
-      </c>
-      <c r="B70" s="3" t="n">
-        <v>0.9399999999999999</v>
+        <v>28899</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>15.75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28466</v>
+        <v>28900</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>28467</v>
-      </c>
-      <c r="B72" s="5" t="n">
-        <v>5.73</v>
+        <v>28901</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>28468</v>
-      </c>
-      <c r="B73" s="3" t="n">
-        <v>2.38</v>
+        <v>28902</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>28469</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>3.43</v>
+        <v>28903</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>28470</v>
+        <v>28904</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>1.75</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>28471</v>
-      </c>
-      <c r="B76" s="3" t="n">
-        <v>2.06</v>
+        <v>28905</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>28472</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>3.44</v>
+        <v>28906</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>28473</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>3.18</v>
+        <v>28907</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>28474</v>
-      </c>
-      <c r="B79" s="4" t="n">
-        <v>7.14</v>
+        <v>28908</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>4.32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>28475</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>4.91</v>
+        <v>28909</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>28476</v>
+        <v>28910</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>28477</v>
-      </c>
-      <c r="B82" s="4" t="n">
-        <v>15.14</v>
+        <v>28911</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>28478</v>
-      </c>
-      <c r="B83" s="4" t="n">
-        <v>10.82</v>
+        <v>28912</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28479</v>
-      </c>
-      <c r="B84" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>28913</v>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>28480</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>3.91</v>
+        <v>28914</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28481</v>
-      </c>
-      <c r="B86" s="4" t="n">
-        <v>9.99</v>
+        <v>28915</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>28482</v>
-      </c>
-      <c r="B87" s="5" t="n">
-        <v>5.9</v>
+        <v>28916</v>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>28483</v>
-      </c>
-      <c r="B88" s="5" t="n">
-        <v>5.82</v>
+        <v>28917</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>28484</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>3.68</v>
+        <v>28918</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>28485</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>3.65</v>
+        <v>28919</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>28486</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>3.18</v>
+        <v>28920</v>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>28487</v>
-      </c>
-      <c r="B92" s="5" t="n">
-        <v>5.93</v>
+        <v>28921</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>28488</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>4.13</v>
+        <v>28922</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>3.23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>28489</v>
+        <v>28923</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>2.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>28490</v>
+        <v>28924</v>
       </c>
       <c r="B95" s="5" t="n">
-        <v>5.27</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>28491</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>3.8</v>
+        <v>28925</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>28492</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>3.56</v>
+        <v>28926</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>28493</v>
-      </c>
-      <c r="B98" s="5" t="n">
-        <v>5.53</v>
+        <v>28927</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>28494</v>
-      </c>
-      <c r="B99" s="4" t="n">
-        <v>8.33</v>
+        <v>28928</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>28495</v>
+        <v>28929</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>4.02</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28496</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>3.58</v>
+        <v>28930</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>28497</v>
+        <v>28931</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>2.47</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>28498</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>4.88</v>
+        <v>28932</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>28499</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>3.78</v>
+        <v>28933</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>3.95</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>28500</v>
-      </c>
-      <c r="B105" s="3" t="n">
-        <v>1.83</v>
+        <v>28934</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>4.19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>28501</v>
+        <v>28935</v>
       </c>
       <c r="B106" s="5" t="n">
-        <v>6.32</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>28502</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>3.12</v>
+        <v>28936</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>28503</v>
+        <v>28937</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>4.16</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>28504</v>
-      </c>
-      <c r="B109" s="3" t="n">
-        <v>2.94</v>
+        <v>28938</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>14.74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>28505</v>
-      </c>
-      <c r="B110" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>28939</v>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>28506</v>
-      </c>
-      <c r="B111" s="4" t="n">
-        <v>10.34</v>
+        <v>28940</v>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>28507</v>
+        <v>28941</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>2.45</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>28508</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>3.01</v>
+        <v>28942</v>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>28509</v>
-      </c>
-      <c r="B114" s="3" t="n">
-        <v>2.85</v>
+        <v>28943</v>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>8.18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>28510</v>
-      </c>
-      <c r="B115" s="3" t="n">
-        <v>2.78</v>
+        <v>28944</v>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>12.49</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>28511</v>
-      </c>
-      <c r="B116" s="4" t="n">
-        <v>7.26</v>
+        <v>28945</v>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>28512</v>
-      </c>
-      <c r="B117" s="5" t="n">
-        <v>6.54</v>
+        <v>28946</v>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>28513</v>
+        <v>28947</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>28514</v>
-      </c>
-      <c r="B119" s="5" t="n">
-        <v>5.12</v>
+        <v>28948</v>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>11.16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>28515</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>4.25</v>
+        <v>28949</v>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>28516</v>
+        <v>28950</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>28517</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>4.03</v>
+        <v>28951</v>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>8.33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>28518</v>
-      </c>
-      <c r="B123" s="3" t="n">
-        <v>2.52</v>
+        <v>28952</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>28519</v>
-      </c>
-      <c r="B124" s="4" t="n">
-        <v>14.78</v>
+        <v>28953</v>
+      </c>
+      <c r="B124" s="5" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>28520</v>
+        <v>28954</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>2.62</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>28521</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>4.01</v>
+        <v>28955</v>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>28522</v>
-      </c>
-      <c r="B127" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>28956</v>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>28523</v>
-      </c>
-      <c r="B128" s="2" t="n">
-        <v>3.86</v>
+        <v>28957</v>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>36.96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>28524</v>
-      </c>
-      <c r="B129" s="3" t="n">
-        <v>2.86</v>
+        <v>28958</v>
+      </c>
+      <c r="B129" s="5" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>28525</v>
+        <v>28959</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>2.6</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>28526</v>
-      </c>
-      <c r="B131" s="2" t="n">
-        <v>3.5</v>
+        <v>28960</v>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>28527</v>
-      </c>
-      <c r="B132" s="2" t="n">
-        <v>4.93</v>
+        <v>28961</v>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>28528</v>
+        <v>28962</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>1.16</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>28529</v>
-      </c>
-      <c r="B134" s="3" t="n">
-        <v>2.73</v>
+        <v>28963</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>6.61</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>28530</v>
-      </c>
-      <c r="B135" s="3" t="n">
-        <v>2.18</v>
+        <v>28964</v>
+      </c>
+      <c r="B135" s="5" t="n">
+        <v>4.47</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>28531</v>
-      </c>
-      <c r="B136" s="3" t="n">
-        <v>2.4</v>
+        <v>28965</v>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>7.33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>28532</v>
-      </c>
-      <c r="B137" s="5" t="n">
-        <v>5.77</v>
+        <v>28966</v>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>28533</v>
-      </c>
-      <c r="B138" s="2" t="n">
-        <v>4.48</v>
+        <v>28967</v>
+      </c>
+      <c r="B138" s="4" t="n">
+        <v>20.32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>28534</v>
-      </c>
-      <c r="B139" s="2" t="n">
-        <v>4.66</v>
+        <v>28968</v>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>28535</v>
-      </c>
-      <c r="B140" s="2" t="n">
-        <v>3.63</v>
+        <v>28969</v>
+      </c>
+      <c r="B140" s="3" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28536</v>
-      </c>
-      <c r="B141" s="5" t="n">
-        <v>5.11</v>
+        <v>28970</v>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>14.64</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>28537</v>
+        <v>28971</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>28538</v>
-      </c>
-      <c r="B143" s="3" t="n">
-        <v>2.95</v>
+        <v>28972</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>6.61</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>28539</v>
+        <v>28973</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>1.32</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>28540</v>
-      </c>
-      <c r="B145" s="2" t="n">
-        <v>3.02</v>
+        <v>28974</v>
+      </c>
+      <c r="B145" s="3" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>28541</v>
-      </c>
-      <c r="B146" s="2" t="n">
-        <v>3.48</v>
+        <v>28975</v>
+      </c>
+      <c r="B146" s="3" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>28542</v>
-      </c>
-      <c r="B147" s="2" t="n">
-        <v>3.85</v>
+        <v>28976</v>
+      </c>
+      <c r="B147" s="3" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>28543</v>
-      </c>
-      <c r="B148" s="2" t="n">
-        <v>3.83</v>
+        <v>28977</v>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>28544</v>
+        <v>28978</v>
       </c>
       <c r="B149" s="3" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>28545</v>
-      </c>
-      <c r="B150" s="3" t="n">
-        <v>2.97</v>
+        <v>28979</v>
+      </c>
+      <c r="B150" s="5" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>28546</v>
+        <v>28980</v>
       </c>
       <c r="B151" s="3" t="n">
-        <v>2.88</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>28547</v>
-      </c>
-      <c r="B152" s="5" t="n">
-        <v>5.33</v>
+        <v>28981</v>
+      </c>
+      <c r="B152" s="4" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>28548</v>
-      </c>
-      <c r="B153" s="3" t="n">
-        <v>2.23</v>
+        <v>28982</v>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>10.79</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>28549</v>
-      </c>
-      <c r="B154" s="2" t="n">
-        <v>3.06</v>
+        <v>28983</v>
+      </c>
+      <c r="B154" s="3" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>28550</v>
-      </c>
-      <c r="B155" s="2" t="n">
-        <v>4.65</v>
+        <v>28984</v>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>7.13</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>28551</v>
-      </c>
-      <c r="B156" s="2" t="n">
-        <v>4.7</v>
+        <v>28985</v>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>28552</v>
+        <v>28986</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>5</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>28553</v>
+        <v>28987</v>
       </c>
       <c r="B158" s="3" t="n">
-        <v>1.31</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>28554</v>
-      </c>
-      <c r="B159" s="3" t="n">
-        <v>2.76</v>
+        <v>28988</v>
+      </c>
+      <c r="B159" s="5" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>28555</v>
-      </c>
-      <c r="B160" s="2" t="n">
-        <v>4.64</v>
+        <v>28989</v>
+      </c>
+      <c r="B160" s="3" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>28556</v>
-      </c>
-      <c r="B161" s="3" t="n">
-        <v>2.96</v>
+        <v>28990</v>
+      </c>
+      <c r="B161" s="5" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>28557</v>
-      </c>
-      <c r="B162" s="2" t="n">
-        <v>4.07</v>
+        <v>28991</v>
+      </c>
+      <c r="B162" s="5" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>28558</v>
-      </c>
-      <c r="B163" s="2" t="n">
-        <v>4.14</v>
+        <v>28992</v>
+      </c>
+      <c r="B163" s="3" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>28559</v>
-      </c>
-      <c r="B164" s="2" t="n">
-        <v>4.69</v>
+        <v>28993</v>
+      </c>
+      <c r="B164" s="5" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>28560</v>
+        <v>28994</v>
       </c>
       <c r="B165" s="3" t="n">
-        <v>1.56</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>28561</v>
-      </c>
-      <c r="B166" s="4" t="n">
-        <v>19.74</v>
+        <v>28997</v>
+      </c>
+      <c r="B166" s="3" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>28562</v>
-      </c>
-      <c r="B167" s="2" t="n">
-        <v>3.85</v>
+        <v>28998</v>
+      </c>
+      <c r="B167" s="3" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>28563</v>
+        <v>29000</v>
       </c>
       <c r="B168" s="4" t="n">
-        <v>10.56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>28564</v>
-      </c>
-      <c r="B169" s="4" t="n">
-        <v>8.33</v>
+        <v>29001</v>
+      </c>
+      <c r="B169" s="5" t="n">
+        <v>3.61</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>28565</v>
+        <v>29002</v>
       </c>
       <c r="B170" s="3" t="n">
-        <v>2.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>28566</v>
-      </c>
-      <c r="B171" s="5" t="n">
-        <v>5.41</v>
+        <v>29003</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>28567</v>
-      </c>
-      <c r="B172" s="3" t="n">
-        <v>1.75</v>
+        <v>29004</v>
+      </c>
+      <c r="B172" s="5" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>28568</v>
-      </c>
-      <c r="B173" s="2" t="n">
-        <v>3.83</v>
+        <v>29005</v>
+      </c>
+      <c r="B173" s="3" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>28569</v>
-      </c>
-      <c r="B174" s="2" t="n">
-        <v>4.01</v>
+        <v>29006</v>
+      </c>
+      <c r="B174" s="3" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>28570</v>
+        <v>29007</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>3.9</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>28571</v>
-      </c>
-      <c r="B176" s="3" t="n">
-        <v>1.98</v>
+        <v>29008</v>
+      </c>
+      <c r="B176" s="5" t="n">
+        <v>4.37</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>28572</v>
-      </c>
-      <c r="B177" s="4" t="n">
-        <v>10.05</v>
+        <v>29009</v>
+      </c>
+      <c r="B177" s="3" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>28573</v>
-      </c>
-      <c r="B178" s="2" t="n">
-        <v>3.71</v>
+        <v>29010</v>
+      </c>
+      <c r="B178" s="3" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28576</v>
-      </c>
-      <c r="B179" s="5" t="n">
-        <v>5.6</v>
+        <v>29011</v>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>28577</v>
+        <v>29012</v>
       </c>
       <c r="B180" s="4" t="n">
-        <v>8.15</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>28578</v>
+        <v>29013</v>
       </c>
       <c r="B181" s="3" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>28579</v>
-      </c>
-      <c r="B182" s="4" t="n">
-        <v>38.9</v>
+        <v>29014</v>
+      </c>
+      <c r="B182" s="3" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>28580</v>
-      </c>
-      <c r="B183" s="5" t="n">
-        <v>5.72</v>
+        <v>29015</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>6.88</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>28581</v>
+        <v>29016</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>28582</v>
-      </c>
-      <c r="B185" s="5" t="n">
-        <v>6.86</v>
+        <v>29017</v>
+      </c>
+      <c r="B185" s="3" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>28583</v>
-      </c>
-      <c r="B186" s="4" t="n">
-        <v>11.69</v>
+        <v>29018</v>
+      </c>
+      <c r="B186" s="3" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>28584</v>
-      </c>
-      <c r="B187" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>29019</v>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>28585</v>
-      </c>
-      <c r="B188" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>29020</v>
+      </c>
+      <c r="B188" s="5" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>28586</v>
+        <v>29021</v>
       </c>
       <c r="B189" s="5" t="n">
-        <v>5.11</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>28587</v>
+        <v>29022</v>
       </c>
       <c r="B190" s="3" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>28588</v>
+        <v>29023</v>
       </c>
       <c r="B191" s="5" t="n">
-        <v>6.13</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>28589</v>
-      </c>
-      <c r="B192" s="3" t="n">
-        <v>1.13</v>
+        <v>29024</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>6.88</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>28590</v>
-      </c>
-      <c r="B193" s="2" t="n">
-        <v>3.24</v>
+        <v>29025</v>
+      </c>
+      <c r="B193" s="5" t="n">
+        <v>4.41</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>28591</v>
-      </c>
-      <c r="B194" s="2" t="n">
-        <v>4.2</v>
+        <v>29026</v>
+      </c>
+      <c r="B194" s="3" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>28592</v>
-      </c>
-      <c r="B195" s="4" t="n">
-        <v>29.46</v>
+        <v>29027</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>6.94</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>28593</v>
+        <v>29028</v>
       </c>
       <c r="B196" s="3" t="n">
-        <v>2.9</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>28594</v>
-      </c>
-      <c r="B197" s="2" t="n">
-        <v>3.3</v>
+        <v>29029</v>
+      </c>
+      <c r="B197" s="5" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>28595</v>
-      </c>
-      <c r="B198" s="2" t="n">
-        <v>3.45</v>
+        <v>29030</v>
+      </c>
+      <c r="B198" s="3" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>28596</v>
-      </c>
-      <c r="B199" s="2" t="n">
-        <v>3.58</v>
+        <v>29031</v>
+      </c>
+      <c r="B199" s="5" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>28597</v>
-      </c>
-      <c r="B200" s="2" t="n">
-        <v>3.62</v>
+        <v>29032</v>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>4.51</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>28598</v>
-      </c>
-      <c r="B201" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>29033</v>
+      </c>
+      <c r="B201" s="3" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>28599</v>
-      </c>
-      <c r="B202" s="2" t="n">
-        <v>4.06</v>
+        <v>29034</v>
+      </c>
+      <c r="B202" s="3" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>28600</v>
-      </c>
-      <c r="B203" s="4" t="n">
-        <v>7.54</v>
+        <v>29035</v>
+      </c>
+      <c r="B203" s="3" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>28601</v>
-      </c>
-      <c r="B204" s="4" t="n">
-        <v>10.53</v>
+        <v>29036</v>
+      </c>
+      <c r="B204" s="3" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28602</v>
+        <v>29037</v>
       </c>
       <c r="B205" s="3" t="n">
-        <v>1.45</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28603</v>
-      </c>
-      <c r="B206" s="2" t="n">
-        <v>3.48</v>
+        <v>29038</v>
+      </c>
+      <c r="B206" s="3" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>28604</v>
-      </c>
-      <c r="B207" s="4" t="n">
-        <v>11.29</v>
+        <v>29039</v>
+      </c>
+      <c r="B207" s="3" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>28605</v>
-      </c>
-      <c r="B208" s="2" t="n">
-        <v>3.49</v>
+        <v>29040</v>
+      </c>
+      <c r="B208" s="3" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>28606</v>
-      </c>
-      <c r="B209" s="5" t="n">
-        <v>5.65</v>
+        <v>29041</v>
+      </c>
+      <c r="B209" s="3" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>28607</v>
-      </c>
-      <c r="B210" s="4" t="n">
-        <v>12.85</v>
+        <v>29042</v>
+      </c>
+      <c r="B210" s="3" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>28608</v>
-      </c>
-      <c r="B211" s="5" t="n">
-        <v>6.89</v>
+        <v>29043</v>
+      </c>
+      <c r="B211" s="3" t="n">
+        <v>2.49</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>28609</v>
-      </c>
-      <c r="B212" s="3" t="n">
-        <v>2.01</v>
+        <v>29044</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>5.74</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>28610</v>
+        <v>29045</v>
       </c>
       <c r="B213" s="3" t="n">
-        <v>2.31</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>28611</v>
-      </c>
-      <c r="B214" s="2" t="n">
-        <v>4.17</v>
+        <v>29046</v>
+      </c>
+      <c r="B214" s="3" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>28612</v>
+        <v>29047</v>
       </c>
       <c r="B215" s="3" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>28613</v>
+        <v>29048</v>
       </c>
       <c r="B216" s="3" t="n">
-        <v>1.73</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>28614</v>
-      </c>
-      <c r="B217" s="2" t="n">
-        <v>4.7</v>
+        <v>29049</v>
+      </c>
+      <c r="B217" s="3" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>28615</v>
-      </c>
-      <c r="B218" s="4" t="n">
-        <v>9.19</v>
+        <v>29050</v>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>28616</v>
+        <v>29051</v>
       </c>
       <c r="B219" s="5" t="n">
-        <v>5.93</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>28617</v>
-      </c>
-      <c r="B220" s="2" t="n">
-        <v>4.71</v>
+        <v>29052</v>
+      </c>
+      <c r="B220" s="5" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>28618</v>
-      </c>
-      <c r="B221" s="3" t="n">
-        <v>1.98</v>
+        <v>29053</v>
+      </c>
+      <c r="B221" s="5" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>28619</v>
-      </c>
-      <c r="B222" s="2" t="n">
-        <v>4.6</v>
+        <v>29054</v>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>28620</v>
-      </c>
-      <c r="B223" s="2" t="n">
-        <v>4.92</v>
+        <v>29055</v>
+      </c>
+      <c r="B223" s="3" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>28621</v>
+        <v>29056</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>4.73</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>28622</v>
-      </c>
-      <c r="B225" s="2" t="n">
-        <v>3.22</v>
+        <v>29057</v>
+      </c>
+      <c r="B225" s="3" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>28623</v>
-      </c>
-      <c r="B226" s="4" t="n">
-        <v>8.67</v>
+        <v>29058</v>
+      </c>
+      <c r="B226" s="3" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>28624</v>
-      </c>
-      <c r="B227" s="2" t="n">
-        <v>3.34</v>
+        <v>29059</v>
+      </c>
+      <c r="B227" s="3" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>28625</v>
-      </c>
-      <c r="B228" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>29060</v>
+      </c>
+      <c r="B228" s="4" t="n">
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>28626</v>
+        <v>29061</v>
       </c>
       <c r="B229" s="3" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>28627</v>
-      </c>
-      <c r="B230" s="2" t="n">
-        <v>3.43</v>
+        <v>29062</v>
+      </c>
+      <c r="B230" s="3" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>28628</v>
+        <v>29063</v>
       </c>
       <c r="B231" s="3" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>28629</v>
+        <v>29064</v>
       </c>
       <c r="B232" s="3" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>28630</v>
+        <v>29065</v>
       </c>
       <c r="B233" s="3" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>28631</v>
-      </c>
-      <c r="B234" s="2" t="n">
-        <v>3.46</v>
+        <v>29066</v>
+      </c>
+      <c r="B234" s="3" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>28632</v>
-      </c>
-      <c r="B235" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>29067</v>
+      </c>
+      <c r="B235" s="3" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>28633</v>
+        <v>29068</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>1.29</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>28634</v>
-      </c>
-      <c r="B237" s="5" t="n">
-        <v>6.46</v>
+        <v>29069</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>5.85</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>28635</v>
-      </c>
-      <c r="B238" s="5" t="n">
-        <v>6.27</v>
+        <v>29070</v>
+      </c>
+      <c r="B238" s="3" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>28636</v>
-      </c>
-      <c r="B239" s="4" t="n">
-        <v>10.78</v>
+        <v>29071</v>
+      </c>
+      <c r="B239" s="3" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>28637</v>
-      </c>
-      <c r="B240" s="4" t="n">
-        <v>10.97</v>
+        <v>29072</v>
+      </c>
+      <c r="B240" s="3" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>28638</v>
-      </c>
-      <c r="B241" s="2" t="n">
-        <v>3.7</v>
+        <v>29073</v>
+      </c>
+      <c r="B241" s="3" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>28639</v>
-      </c>
-      <c r="B242" s="2" t="n">
-        <v>3.5</v>
+        <v>29074</v>
+      </c>
+      <c r="B242" s="3" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>28640</v>
+        <v>29075</v>
       </c>
       <c r="B243" s="3" t="n">
-        <v>2.78</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>28641</v>
-      </c>
-      <c r="B244" s="2" t="n">
-        <v>4.44</v>
+        <v>29076</v>
+      </c>
+      <c r="B244" s="3" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>28642</v>
-      </c>
-      <c r="B245" s="2" t="n">
-        <v>4.17</v>
+        <v>29078</v>
+      </c>
+      <c r="B245" s="4" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>28643</v>
-      </c>
-      <c r="B246" s="2" t="n">
-        <v>3.34</v>
+        <v>29079</v>
+      </c>
+      <c r="B246" s="4" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>28644</v>
-      </c>
-      <c r="B247" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>29080</v>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>28645</v>
-      </c>
-      <c r="B248" s="5" t="n">
-        <v>5.72</v>
+        <v>29081</v>
+      </c>
+      <c r="B248" s="4" t="n">
+        <v>10.01</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>28646</v>
-      </c>
-      <c r="B249" s="4" t="n">
-        <v>9.9</v>
+        <v>29082</v>
+      </c>
+      <c r="B249" s="3" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>28647</v>
-      </c>
-      <c r="B250" s="2" t="n">
-        <v>4.51</v>
+        <v>29083</v>
+      </c>
+      <c r="B250" s="3" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>28648</v>
+        <v>29085</v>
       </c>
       <c r="B251" s="3" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>28649</v>
-      </c>
-      <c r="B252" s="2" t="n">
-        <v>3.72</v>
+        <v>29086</v>
+      </c>
+      <c r="B252" s="3" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>28650</v>
-      </c>
-      <c r="B253" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>29087</v>
+      </c>
+      <c r="B253" s="3" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>28651</v>
-      </c>
-      <c r="B254" s="3" t="n">
-        <v>0.97</v>
+        <v>29088</v>
+      </c>
+      <c r="B254" s="4" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>28652</v>
-      </c>
-      <c r="B255" s="3" t="n">
-        <v>2.15</v>
+        <v>29089</v>
+      </c>
+      <c r="B255" s="5" t="n">
+        <v>4.57</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>28653</v>
-      </c>
-      <c r="B256" s="5" t="n">
-        <v>5.39</v>
+        <v>29090</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>6.54</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>28654</v>
-      </c>
-      <c r="B257" s="2" t="n">
-        <v>3.23</v>
+        <v>29091</v>
+      </c>
+      <c r="B257" s="3" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>28655</v>
-      </c>
-      <c r="B258" s="2" t="n">
-        <v>4.09</v>
+        <v>29092</v>
+      </c>
+      <c r="B258" s="4" t="n">
+        <v>8.17</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>28656</v>
+        <v>29093</v>
       </c>
       <c r="B259" s="3" t="n">
-        <v>2.13</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>28657</v>
-      </c>
-      <c r="B260" s="3" t="n">
-        <v>2.23</v>
+        <v>29094</v>
+      </c>
+      <c r="B260" s="5" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>28658</v>
-      </c>
-      <c r="B261" s="3" t="n">
-        <v>2.76</v>
+        <v>29095</v>
+      </c>
+      <c r="B261" s="4" t="n">
+        <v>15.44</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>28659</v>
-      </c>
-      <c r="B262" s="3" t="n">
-        <v>2.69</v>
+        <v>29096</v>
+      </c>
+      <c r="B262" s="5" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>28660</v>
-      </c>
-      <c r="B263" s="2" t="n">
-        <v>4.37</v>
+        <v>29097</v>
+      </c>
+      <c r="B263" s="4" t="n">
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>28661</v>
-      </c>
-      <c r="B264" s="2" t="n">
-        <v>4.31</v>
+        <v>29098</v>
+      </c>
+      <c r="B264" s="4" t="n">
+        <v>12.09</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>28662</v>
-      </c>
-      <c r="B265" s="2" t="n">
-        <v>4.3</v>
+        <v>29099</v>
+      </c>
+      <c r="B265" s="3" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>28663</v>
-      </c>
-      <c r="B266" s="5" t="n">
-        <v>5.04</v>
+        <v>29100</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>6.18</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>28664</v>
-      </c>
-      <c r="B267" s="3" t="n">
-        <v>2.37</v>
+        <v>29101</v>
+      </c>
+      <c r="B267" s="5" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>28665</v>
-      </c>
-      <c r="B268" s="3" t="n">
-        <v>2.96</v>
+        <v>29102</v>
+      </c>
+      <c r="B268" s="5" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>28666</v>
-      </c>
-      <c r="B269" s="4" t="n">
-        <v>7.8</v>
+        <v>29103</v>
+      </c>
+      <c r="B269" s="3" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>28667</v>
-      </c>
-      <c r="B270" s="5" t="n">
-        <v>5.41</v>
+        <v>29104</v>
+      </c>
+      <c r="B270" s="4" t="n">
+        <v>11.22</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>28668</v>
-      </c>
-      <c r="B271" s="5" t="n">
-        <v>5.46</v>
+        <v>29105</v>
+      </c>
+      <c r="B271" s="4" t="n">
+        <v>7.36</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>28669</v>
-      </c>
-      <c r="B272" s="5" t="n">
-        <v>6.06</v>
+        <v>29106</v>
+      </c>
+      <c r="B272" s="4" t="n">
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>28670</v>
-      </c>
-      <c r="B273" s="4" t="n">
-        <v>14.62</v>
+        <v>29107</v>
+      </c>
+      <c r="B273" s="5" t="n">
+        <v>3.89</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>28671</v>
-      </c>
-      <c r="B274" s="5" t="n">
-        <v>5.65</v>
+        <v>29108</v>
+      </c>
+      <c r="B274" s="3" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>28672</v>
-      </c>
-      <c r="B275" s="3" t="n">
-        <v>2.74</v>
+        <v>29109</v>
+      </c>
+      <c r="B275" s="5" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>28673</v>
-      </c>
-      <c r="B276" s="2" t="n">
-        <v>4.9</v>
+        <v>29110</v>
+      </c>
+      <c r="B276" s="5" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>28674</v>
-      </c>
-      <c r="B277" s="4" t="n">
-        <v>10.77</v>
+        <v>29111</v>
+      </c>
+      <c r="B277" s="3" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>28675</v>
+        <v>29112</v>
       </c>
       <c r="B278" s="3" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>28676</v>
-      </c>
-      <c r="B279" s="2" t="n">
-        <v>3.14</v>
+        <v>29113</v>
+      </c>
+      <c r="B279" s="3" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>28677</v>
-      </c>
-      <c r="B280" s="3" t="n">
-        <v>2.94</v>
+        <v>29114</v>
+      </c>
+      <c r="B280" s="5" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>28678</v>
+        <v>29115</v>
       </c>
       <c r="B281" s="3" t="n">
-        <v>1.52</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>28679</v>
-      </c>
-      <c r="B282" s="3" t="n">
-        <v>1.87</v>
+        <v>29116</v>
+      </c>
+      <c r="B282" s="5" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>28680</v>
-      </c>
-      <c r="B283" s="2" t="n">
-        <v>3.05</v>
+        <v>29117</v>
+      </c>
+      <c r="B283" s="5" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>28681</v>
-      </c>
-      <c r="B284" s="4" t="n">
-        <v>12.12</v>
+        <v>29118</v>
+      </c>
+      <c r="B284" s="3" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>28682</v>
-      </c>
-      <c r="B285" s="4" t="n">
-        <v>11.31</v>
+        <v>29119</v>
+      </c>
+      <c r="B285" s="5" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>28683</v>
+        <v>29120</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>4.98</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28684</v>
-      </c>
-      <c r="B287" s="4" t="n">
-        <v>9.6</v>
+        <v>29121</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>6.14</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28685</v>
-      </c>
-      <c r="B288" s="2" t="n">
-        <v>4.12</v>
+        <v>29122</v>
+      </c>
+      <c r="B288" s="4" t="n">
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28686</v>
+        <v>29123</v>
       </c>
       <c r="B289" s="3" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28687</v>
-      </c>
-      <c r="B290" s="2" t="n">
-        <v>3.96</v>
+        <v>29124</v>
+      </c>
+      <c r="B290" s="5" t="n">
+        <v>3.74</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28688</v>
+        <v>29125</v>
       </c>
       <c r="B291" s="5" t="n">
-        <v>6.01</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28689</v>
-      </c>
-      <c r="B292" s="3" t="n">
-        <v>1.61</v>
+        <v>29126</v>
+      </c>
+      <c r="B292" s="5" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28690</v>
+        <v>29127</v>
       </c>
       <c r="B293" s="5" t="n">
-        <v>6.52</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28691</v>
+        <v>29128</v>
       </c>
       <c r="B294" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28692</v>
-      </c>
-      <c r="B295" s="2" t="n">
-        <v>4.13</v>
+        <v>29129</v>
+      </c>
+      <c r="B295" s="3" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28693</v>
-      </c>
-      <c r="B296" s="3" t="n">
-        <v>1.65</v>
+        <v>29130</v>
+      </c>
+      <c r="B296" s="5" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>28694</v>
+        <v>29131</v>
       </c>
       <c r="B297" s="5" t="n">
-        <v>6.82</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>28695</v>
-      </c>
-      <c r="B298" s="2" t="n">
-        <v>3.59</v>
+        <v>29132</v>
+      </c>
+      <c r="B298" s="3" t="n">
+        <v>2.87</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>28696</v>
-      </c>
-      <c r="B299" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>29133</v>
+      </c>
+      <c r="B299" s="3" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>28697</v>
-      </c>
-      <c r="B300" s="4" t="n">
-        <v>8.59</v>
+        <v>29134</v>
+      </c>
+      <c r="B300" s="5" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>28698</v>
+        <v>29135</v>
       </c>
       <c r="B301" s="3" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>28699</v>
-      </c>
-      <c r="B302" s="3" t="n">
-        <v>2.7</v>
+        <v>29136</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>5.68</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>28700</v>
-      </c>
-      <c r="B303" s="2" t="n">
-        <v>4.16</v>
+        <v>29137</v>
+      </c>
+      <c r="B303" s="5" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>28701</v>
-      </c>
-      <c r="B304" s="3" t="n">
-        <v>2.21</v>
+        <v>29138</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>28702</v>
+        <v>29139</v>
       </c>
       <c r="B305" s="3" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>28703</v>
-      </c>
-      <c r="B306" s="2" t="n">
-        <v>4.32</v>
+        <v>29140</v>
+      </c>
+      <c r="B306" s="3" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>28704</v>
+        <v>29141</v>
       </c>
       <c r="B307" s="3" t="n">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>28705</v>
-      </c>
-      <c r="B308" s="2" t="n">
-        <v>3.66</v>
+        <v>29142</v>
+      </c>
+      <c r="B308" s="3" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>28706</v>
+        <v>29143</v>
       </c>
       <c r="B309" s="3" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>28707</v>
+        <v>29144</v>
       </c>
       <c r="B310" s="3" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>28708</v>
-      </c>
-      <c r="B311" s="4" t="n">
-        <v>31.93</v>
+        <v>29145</v>
+      </c>
+      <c r="B311" s="3" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>28709</v>
-      </c>
-      <c r="B312" s="4" t="n">
-        <v>20.52</v>
+        <v>29146</v>
+      </c>
+      <c r="B312" s="3" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>28710</v>
-      </c>
-      <c r="B313" s="4" t="n">
-        <v>17.66</v>
+        <v>29147</v>
+      </c>
+      <c r="B313" s="3" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>28711</v>
+        <v>29148</v>
       </c>
       <c r="B314" s="3" t="n">
-        <v>2.69</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>28712</v>
-      </c>
-      <c r="B315" s="3" t="n">
-        <v>2</v>
+        <v>29149</v>
+      </c>
+      <c r="B315" s="5" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>28713</v>
-      </c>
-      <c r="B316" s="2" t="n">
-        <v>3.27</v>
+        <v>29150</v>
+      </c>
+      <c r="B316" s="5" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>28714</v>
-      </c>
-      <c r="B317" s="5" t="n">
-        <v>5.76</v>
+        <v>29151</v>
+      </c>
+      <c r="B317" s="3" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>28715</v>
-      </c>
-      <c r="B318" s="4" t="n">
-        <v>10.3</v>
+        <v>29152</v>
+      </c>
+      <c r="B318" s="5" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>28716</v>
-      </c>
-      <c r="B319" s="2" t="n">
-        <v>4.38</v>
+        <v>29153</v>
+      </c>
+      <c r="B319" s="5" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>28717</v>
-      </c>
-      <c r="B320" s="5" t="n">
-        <v>6.7</v>
+        <v>29154</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>6.67</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>28718</v>
-      </c>
-      <c r="B321" s="4" t="n">
-        <v>7.51</v>
+        <v>29155</v>
+      </c>
+      <c r="B321" s="5" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>28719</v>
-      </c>
-      <c r="B322" s="3" t="n">
-        <v>2.58</v>
+        <v>29156</v>
+      </c>
+      <c r="B322" s="5" t="n">
+        <v>4.08</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>28720</v>
+        <v>29157</v>
       </c>
       <c r="B323" s="3" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>28721</v>
-      </c>
-      <c r="B324" s="3" t="n">
-        <v>2.13</v>
+        <v>29158</v>
+      </c>
+      <c r="B324" s="5" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>28722</v>
+        <v>29159</v>
       </c>
       <c r="B325" s="3" t="n">
-        <v>2.73</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>28723</v>
+        <v>29160</v>
       </c>
       <c r="B326" s="3" t="n">
-        <v>1.92</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>28724</v>
+        <v>29161</v>
       </c>
       <c r="B327" s="3" t="n">
-        <v>2.72</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>28725</v>
+        <v>29162</v>
       </c>
       <c r="B328" s="3" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>28726</v>
+        <v>29163</v>
       </c>
       <c r="B329" s="3" t="n">
-        <v>2.69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>28727</v>
-      </c>
-      <c r="B330" s="3" t="n">
-        <v>2.56</v>
+        <v>29164</v>
+      </c>
+      <c r="B330" s="4" t="n">
+        <v>9.69</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>28728</v>
+        <v>29165</v>
       </c>
       <c r="B331" s="3" t="n">
-        <v>1.89</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>28729</v>
+        <v>29166</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>3.13</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>28730</v>
+        <v>29167</v>
       </c>
       <c r="B333" s="3" t="n">
-        <v>2.36</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>28731</v>
-      </c>
-      <c r="B334" s="3" t="n">
-        <v>2.45</v>
+        <v>29168</v>
+      </c>
+      <c r="B334" s="5" t="n">
+        <v>3.98</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>28732</v>
-      </c>
-      <c r="B335" s="2" t="n">
-        <v>4.58</v>
+        <v>29169</v>
+      </c>
+      <c r="B335" s="3" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>28733</v>
-      </c>
-      <c r="B336" s="3" t="n">
-        <v>2.12</v>
+        <v>29170</v>
+      </c>
+      <c r="B336" s="4" t="n">
+        <v>8.34</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>28734</v>
-      </c>
-      <c r="B337" s="4" t="n">
-        <v>8.68</v>
+        <v>29171</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>5.32</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>28735</v>
-      </c>
-      <c r="B338" s="5" t="n">
-        <v>5.06</v>
+        <v>29172</v>
+      </c>
+      <c r="B338" s="4" t="n">
+        <v>17.37</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>28736</v>
+        <v>29173</v>
       </c>
       <c r="B339" s="3" t="n">
-        <v>2.56</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>28737</v>
-      </c>
-      <c r="B340" s="3" t="n">
-        <v>1.38</v>
+        <v>29174</v>
+      </c>
+      <c r="B340" s="4" t="n">
+        <v>11.6</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>28738</v>
-      </c>
-      <c r="B341" s="2" t="n">
-        <v>3.92</v>
+        <v>29175</v>
+      </c>
+      <c r="B341" s="5" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>28739</v>
+        <v>29176</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>3.03</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>28740</v>
-      </c>
-      <c r="B343" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>29177</v>
+      </c>
+      <c r="B343" s="3" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>28741</v>
-      </c>
-      <c r="B344" s="3" t="n">
-        <v>2.59</v>
+        <v>29178</v>
+      </c>
+      <c r="B344" s="5" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>28742</v>
-      </c>
-      <c r="B345" s="3" t="n">
-        <v>1.29</v>
+        <v>29179</v>
+      </c>
+      <c r="B345" s="4" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>28743</v>
-      </c>
-      <c r="B346" s="2" t="n">
-        <v>3.18</v>
+        <v>29180</v>
+      </c>
+      <c r="B346" s="4" t="n">
+        <v>15.71</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>28744</v>
-      </c>
-      <c r="B347" s="4" t="n">
-        <v>16.26</v>
+        <v>29181</v>
+      </c>
+      <c r="B347" s="3" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>28745</v>
+        <v>29182</v>
       </c>
       <c r="B348" s="4" t="n">
-        <v>11.04</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>28746</v>
-      </c>
-      <c r="B349" s="5" t="n">
-        <v>6.73</v>
+        <v>29183</v>
+      </c>
+      <c r="B349" s="3" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>28747</v>
-      </c>
-      <c r="B350" s="3" t="n">
-        <v>2.21</v>
+        <v>29184</v>
+      </c>
+      <c r="B350" s="4" t="n">
+        <v>9.49</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>28748</v>
-      </c>
-      <c r="B351" s="3" t="n">
-        <v>0</v>
+        <v>29185</v>
+      </c>
+      <c r="B351" s="4" t="n">
+        <v>8.25</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>28749</v>
-      </c>
-      <c r="B352" s="3" t="n">
-        <v>1.89</v>
+        <v>29186</v>
+      </c>
+      <c r="B352" s="4" t="n">
+        <v>7.82</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>28750</v>
-      </c>
-      <c r="B353" s="2" t="n">
-        <v>3.38</v>
+        <v>29187</v>
+      </c>
+      <c r="B353" s="5" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>28751</v>
-      </c>
-      <c r="B354" s="2" t="n">
-        <v>3.83</v>
+        <v>29188</v>
+      </c>
+      <c r="B354" s="3" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>28752</v>
-      </c>
-      <c r="B355" s="3" t="n">
-        <v>2.94</v>
+        <v>29189</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>28753</v>
-      </c>
-      <c r="B356" s="4" t="n">
-        <v>7.55</v>
+        <v>29190</v>
+      </c>
+      <c r="B356" s="3" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>28754</v>
-      </c>
-      <c r="B357" s="3" t="n">
-        <v>2.59</v>
+        <v>29191</v>
+      </c>
+      <c r="B357" s="4" t="n">
+        <v>14.27</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>28755</v>
-      </c>
-      <c r="B358" s="3" t="n">
-        <v>1.86</v>
+        <v>29192</v>
+      </c>
+      <c r="B358" s="5" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>28756</v>
+        <v>29193</v>
       </c>
       <c r="B359" s="3" t="n">
-        <v>2.63</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>28757</v>
+        <v>29194</v>
       </c>
       <c r="B360" s="3" t="n">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>28758</v>
+        <v>29195</v>
       </c>
       <c r="B361" s="3" t="n">
-        <v>0.72</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>28759</v>
-      </c>
-      <c r="B362" s="3" t="n">
-        <v>1.49</v>
+        <v>29196</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>5.92</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>28760</v>
-      </c>
-      <c r="B363" s="2" t="n">
-        <v>3.39</v>
+        <v>29197</v>
+      </c>
+      <c r="B363" s="3" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>28761</v>
-      </c>
-      <c r="B364" s="4" t="n">
-        <v>7.35</v>
+        <v>29198</v>
+      </c>
+      <c r="B364" s="3" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>28762</v>
-      </c>
-      <c r="B365" s="2" t="n">
-        <v>5</v>
+        <v>29199</v>
+      </c>
+      <c r="B365" s="3" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>28763</v>
-      </c>
-      <c r="B366" s="3" t="n">
-        <v>3</v>
+        <v>29200</v>
+      </c>
+      <c r="B366" s="5" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>28764</v>
+        <v>29201</v>
       </c>
       <c r="B367" s="3" t="n">
-        <v>0.16</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>28765</v>
-      </c>
-      <c r="B368" s="3" t="n">
-        <v>0.67</v>
+        <v>29202</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>6.08</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>28766</v>
+        <v>29203</v>
       </c>
       <c r="B369" s="3" t="n">
-        <v>1.61</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>28767</v>
+        <v>29204</v>
       </c>
       <c r="B370" s="4" t="n">
-        <v>13.38</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>28768</v>
-      </c>
-      <c r="B371" s="2" t="n">
-        <v>3.22</v>
+        <v>29205</v>
+      </c>
+      <c r="B371" s="3" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>28769</v>
-      </c>
-      <c r="B372" s="3" t="n">
-        <v>1.13</v>
+        <v>29206</v>
+      </c>
+      <c r="B372" s="5" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>28770</v>
+        <v>29207</v>
       </c>
       <c r="B373" s="3" t="n">
-        <v>2.44</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>28771</v>
-      </c>
-      <c r="B374" s="2" t="n">
-        <v>3.88</v>
+        <v>29208</v>
+      </c>
+      <c r="B374" s="5" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>28772</v>
-      </c>
-      <c r="B375" s="3" t="n">
-        <v>2.69</v>
+        <v>29209</v>
+      </c>
+      <c r="B375" s="4" t="n">
+        <v>16.38</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>28773</v>
-      </c>
-      <c r="B376" s="5" t="n">
-        <v>5.75</v>
+        <v>29210</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>6.14</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>28774</v>
-      </c>
-      <c r="B377" s="2" t="n">
-        <v>4.38</v>
+        <v>29211</v>
+      </c>
+      <c r="B377" s="3" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>28775</v>
-      </c>
-      <c r="B378" s="3" t="n">
-        <v>0.58</v>
+        <v>29212</v>
+      </c>
+      <c r="B378" s="4" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>28776</v>
-      </c>
-      <c r="B379" s="4" t="n">
-        <v>14.08</v>
+        <v>29213</v>
+      </c>
+      <c r="B379" s="3" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>28777</v>
+        <v>29214</v>
       </c>
       <c r="B380" s="3" t="n">
-        <v>0.39</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>28778</v>
-      </c>
-      <c r="B381" s="3" t="n">
-        <v>2.92</v>
+        <v>29215</v>
+      </c>
+      <c r="B381" s="5" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>28779</v>
-      </c>
-      <c r="B382" s="2" t="n">
-        <v>4.94</v>
+        <v>29216</v>
+      </c>
+      <c r="B382" s="3" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>28780</v>
-      </c>
-      <c r="B383" s="3" t="n">
-        <v>2.02</v>
+        <v>29217</v>
+      </c>
+      <c r="B383" s="5" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>28781</v>
+        <v>29218</v>
       </c>
       <c r="B384" s="3" t="n">
-        <v>2.54</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>28782</v>
-      </c>
-      <c r="B385" s="3" t="n">
-        <v>1.47</v>
+        <v>29219</v>
+      </c>
+      <c r="B385" s="5" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>28783</v>
-      </c>
-      <c r="B386" s="3" t="n">
-        <v>1.88</v>
+        <v>29220</v>
+      </c>
+      <c r="B386" s="5" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>28784</v>
+        <v>29221</v>
       </c>
       <c r="B387" s="3" t="n">
-        <v>2.63</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>28785</v>
-      </c>
-      <c r="B388" s="3" t="n">
-        <v>2.61</v>
+        <v>29222</v>
+      </c>
+      <c r="B388" s="5" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>28786</v>
+        <v>29223</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>4.21</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>28787</v>
+        <v>29224</v>
       </c>
       <c r="B390" s="3" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>28788</v>
-      </c>
-      <c r="B391" s="5" t="n">
-        <v>6.49</v>
+        <v>29225</v>
+      </c>
+      <c r="B391" s="3" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>28789</v>
-      </c>
-      <c r="B392" s="4" t="n">
-        <v>47.77</v>
+        <v>29226</v>
+      </c>
+      <c r="B392" s="5" t="n">
+        <v>3.08</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>28790</v>
+        <v>29227</v>
       </c>
       <c r="B393" s="3" t="n">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>28791</v>
-      </c>
-      <c r="B394" s="5" t="n">
-        <v>6.89</v>
+        <v>29228</v>
+      </c>
+      <c r="B394" s="3" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>28792</v>
-      </c>
-      <c r="B395" s="2" t="n">
-        <v>3.93</v>
+        <v>29229</v>
+      </c>
+      <c r="B395" s="5" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>28793</v>
+        <v>29230</v>
       </c>
       <c r="B396" s="3" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>28794</v>
+        <v>29231</v>
       </c>
       <c r="B397" s="5" t="n">
-        <v>6.05</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>28795</v>
+        <v>29232</v>
       </c>
       <c r="B398" s="3" t="n">
-        <v>2.36</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>28796</v>
-      </c>
-      <c r="B399" s="2" t="n">
-        <v>4.82</v>
+        <v>29233</v>
+      </c>
+      <c r="B399" s="5" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>28797</v>
-      </c>
-      <c r="B400" s="2" t="n">
-        <v>3.17</v>
+        <v>29234</v>
+      </c>
+      <c r="B400" s="4" t="n">
+        <v>8.01</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>28798</v>
-      </c>
-      <c r="B401" s="2" t="n">
-        <v>4.94</v>
+        <v>29235</v>
+      </c>
+      <c r="B401" s="5" t="n">
+        <v>4.34</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>28799</v>
-      </c>
-      <c r="B402" s="4" t="n">
-        <v>7.29</v>
+        <v>29236</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>6.73</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>28800</v>
+        <v>29237</v>
       </c>
       <c r="B403" s="3" t="n">
-        <v>2.24</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>28801</v>
-      </c>
-      <c r="B404" s="2" t="n">
-        <v>3.12</v>
+        <v>29238</v>
+      </c>
+      <c r="B404" s="5" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>28802</v>
-      </c>
-      <c r="B405" s="4" t="n">
-        <v>15.23</v>
+        <v>29239</v>
+      </c>
+      <c r="B405" s="5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>28803</v>
-      </c>
-      <c r="B406" s="3" t="n">
-        <v>2.8</v>
+        <v>29240</v>
+      </c>
+      <c r="B406" s="5" t="n">
+        <v>4.97</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>28804</v>
-      </c>
-      <c r="B407" s="3" t="n">
-        <v>2.58</v>
+        <v>29241</v>
+      </c>
+      <c r="B407" s="5" t="n">
+        <v>3.39</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>28805</v>
-      </c>
-      <c r="B408" s="3" t="n">
-        <v>2.48</v>
+        <v>29242</v>
+      </c>
+      <c r="B408" s="5" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>28806</v>
+        <v>29243</v>
       </c>
       <c r="B409" s="3" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>28807</v>
+        <v>29244</v>
       </c>
       <c r="B410" s="3" t="n">
-        <v>1.74</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>28808</v>
+        <v>29245</v>
       </c>
       <c r="B411" s="3" t="n">
-        <v>2.72</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>28809</v>
-      </c>
-      <c r="B412" s="3" t="n">
-        <v>2.15</v>
+        <v>29246</v>
+      </c>
+      <c r="B412" s="4" t="n">
+        <v>13.37</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>28810</v>
-      </c>
-      <c r="B413" s="3" t="n">
-        <v>1.91</v>
+        <v>29247</v>
+      </c>
+      <c r="B413" s="5" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>28811</v>
-      </c>
-      <c r="B414" s="2" t="n">
-        <v>3.22</v>
+        <v>29248</v>
+      </c>
+      <c r="B414" s="3" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>28812</v>
-      </c>
-      <c r="B415" s="3" t="n">
-        <v>1.72</v>
+        <v>29249</v>
+      </c>
+      <c r="B415" s="4" t="n">
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>28813</v>
-      </c>
-      <c r="B416" s="3" t="n">
-        <v>2.18</v>
+        <v>29250</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>6.97</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>28814</v>
+        <v>29251</v>
       </c>
       <c r="B417" s="3" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>28815</v>
+        <v>29252</v>
       </c>
       <c r="B418" s="3" t="n">
-        <v>2.78</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>28816</v>
-      </c>
-      <c r="B419" s="3" t="n">
-        <v>2.02</v>
+        <v>29253</v>
+      </c>
+      <c r="B419" s="4" t="n">
+        <v>9.69</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>28817</v>
-      </c>
-      <c r="B420" s="2" t="n">
-        <v>3.46</v>
+        <v>29254</v>
+      </c>
+      <c r="B420" s="4" t="n">
+        <v>8.77</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>28818</v>
-      </c>
-      <c r="B421" s="3" t="n">
-        <v>2.34</v>
+        <v>29255</v>
+      </c>
+      <c r="B421" s="4" t="n">
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>28819</v>
-      </c>
-      <c r="B422" s="5" t="n">
-        <v>5.94</v>
+        <v>29256</v>
+      </c>
+      <c r="B422" s="3" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>28820</v>
-      </c>
-      <c r="B423" s="3" t="n">
-        <v>1.6</v>
+        <v>29257</v>
+      </c>
+      <c r="B423" s="5" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>28821</v>
-      </c>
-      <c r="B424" s="3" t="n">
-        <v>1.58</v>
+        <v>29258</v>
+      </c>
+      <c r="B424" s="4" t="n">
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>28822</v>
-      </c>
-      <c r="B425" s="3" t="n">
-        <v>1.75</v>
+        <v>29259</v>
+      </c>
+      <c r="B425" s="4" t="n">
+        <v>8.31</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>28823</v>
+        <v>29260</v>
       </c>
       <c r="B426" s="3" t="n">
-        <v>2.41</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>28824</v>
+        <v>29261</v>
       </c>
       <c r="B427" s="5" t="n">
-        <v>6.11</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>28825</v>
+        <v>29262</v>
       </c>
       <c r="B428" s="3" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>28826</v>
-      </c>
-      <c r="B429" s="3" t="n">
-        <v>1.83</v>
+        <v>29263</v>
+      </c>
+      <c r="B429" s="5" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>28827</v>
+        <v>29264</v>
       </c>
       <c r="B430" s="3" t="n">
-        <v>0.41</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>28828</v>
-      </c>
-      <c r="B431" s="2" t="n">
-        <v>4.23</v>
+        <v>29265</v>
+      </c>
+      <c r="B431" s="4" t="n">
+        <v>9.9</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>28829</v>
-      </c>
-      <c r="B432" s="2" t="n">
-        <v>3.55</v>
+        <v>29266</v>
+      </c>
+      <c r="B432" s="3" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>28830</v>
-      </c>
-      <c r="B433" s="5" t="n">
-        <v>6.45</v>
+        <v>29267</v>
+      </c>
+      <c r="B433" s="3" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>28831</v>
-      </c>
-      <c r="B434" s="5" t="n">
-        <v>5.16</v>
+        <v>29268</v>
+      </c>
+      <c r="B434" s="3" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>28832</v>
+        <v>29269</v>
       </c>
       <c r="B435" s="3" t="n">
-        <v>0.75</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>28833</v>
+        <v>29270</v>
       </c>
       <c r="B436" s="4" t="n">
-        <v>21.68</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>28834</v>
+        <v>29271</v>
       </c>
       <c r="B437" s="3" t="n">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>28835</v>
-      </c>
-      <c r="B438" s="3" t="n">
-        <v>0.97</v>
+        <v>29272</v>
+      </c>
+      <c r="B438" s="4" t="n">
+        <v>10.77</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>28836</v>
+        <v>29273</v>
       </c>
       <c r="B439" s="3" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>28837</v>
-      </c>
-      <c r="B440" s="3" t="n">
-        <v>2.26</v>
+        <v>29274</v>
+      </c>
+      <c r="B440" s="4" t="n">
+        <v>11.07</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>28838</v>
+        <v>29275</v>
       </c>
       <c r="B441" s="3" t="n">
-        <v>2.59</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>28839</v>
-      </c>
-      <c r="B442" s="5" t="n">
-        <v>5.73</v>
+        <v>29276</v>
+      </c>
+      <c r="B442" s="4" t="n">
+        <v>13.36</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>28840</v>
-      </c>
-      <c r="B443" s="2" t="n">
-        <v>3.72</v>
+        <v>29277</v>
+      </c>
+      <c r="B443" s="5" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>28841</v>
+        <v>29278</v>
       </c>
       <c r="B444" s="4" t="n">
-        <v>16.65</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>28842</v>
-      </c>
-      <c r="B445" s="2" t="n">
-        <v>4.32</v>
+        <v>29279</v>
+      </c>
+      <c r="B445" s="3" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>28843</v>
-      </c>
-      <c r="B446" s="5" t="n">
-        <v>6.77</v>
+        <v>29280</v>
+      </c>
+      <c r="B446" s="4" t="n">
+        <v>11.17</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>28844</v>
+        <v>29281</v>
       </c>
       <c r="B447" s="3" t="n">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>28845</v>
+        <v>29282</v>
       </c>
       <c r="B448" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>28846</v>
-      </c>
-      <c r="B449" s="2" t="n">
-        <v>3.07</v>
+        <v>29283</v>
+      </c>
+      <c r="B449" s="3" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>28847</v>
-      </c>
-      <c r="B450" s="2" t="n">
-        <v>3.62</v>
+        <v>29284</v>
+      </c>
+      <c r="B450" s="5" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>28848</v>
-      </c>
-      <c r="B451" s="3" t="n">
-        <v>1.76</v>
+        <v>29285</v>
+      </c>
+      <c r="B451" s="5" t="n">
+        <v>3.02</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>28849</v>
+        <v>29286</v>
       </c>
       <c r="B452" s="3" t="n">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>28850</v>
-      </c>
-      <c r="B453" s="2" t="n">
-        <v>4.2</v>
+        <v>29287</v>
+      </c>
+      <c r="B453" s="5" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>28851</v>
-      </c>
-      <c r="B454" s="2" t="n">
-        <v>3.2</v>
+        <v>29288</v>
+      </c>
+      <c r="B454" s="3" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>28852</v>
+        <v>29289</v>
       </c>
       <c r="B455" s="3" t="n">
-        <v>0.52</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>28853</v>
-      </c>
-      <c r="B456" s="3" t="n">
-        <v>1.77</v>
+        <v>29290</v>
+      </c>
+      <c r="B456" s="5" t="n">
+        <v>3.08</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>28854</v>
-      </c>
-      <c r="B457" s="3" t="n">
-        <v>2.02</v>
+        <v>29291</v>
+      </c>
+      <c r="B457" s="5" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>28855</v>
-      </c>
-      <c r="B458" s="2" t="n">
-        <v>3.16</v>
+        <v>29292</v>
+      </c>
+      <c r="B458" s="5" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>28856</v>
-      </c>
-      <c r="B459" s="2" t="n">
-        <v>4.8</v>
+        <v>29293</v>
+      </c>
+      <c r="B459" s="4" t="n">
+        <v>10.57</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>28857</v>
-      </c>
-      <c r="B460" s="4" t="n">
-        <v>11.29</v>
+        <v>29294</v>
+      </c>
+      <c r="B460" s="3" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>28858</v>
-      </c>
-      <c r="B461" s="3" t="n">
-        <v>1.75</v>
+        <v>29295</v>
+      </c>
+      <c r="B461" s="5" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>28859</v>
-      </c>
-      <c r="B462" s="5" t="n">
-        <v>5.9</v>
+        <v>29296</v>
+      </c>
+      <c r="B462" s="3" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>28860</v>
-      </c>
-      <c r="B463" s="3" t="n">
-        <v>2.09</v>
+        <v>29297</v>
+      </c>
+      <c r="B463" s="5" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>28861</v>
+        <v>29299</v>
       </c>
       <c r="B464" s="3" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>28862</v>
-      </c>
-      <c r="B465" s="3" t="n">
-        <v>1.22</v>
+        <v>29300</v>
+      </c>
+      <c r="B465" s="4" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>28863</v>
-      </c>
-      <c r="B466" s="3" t="n">
-        <v>0.86</v>
+        <v>29301</v>
+      </c>
+      <c r="B466" s="4" t="n">
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>28864</v>
-      </c>
-      <c r="B467" s="3" t="n">
-        <v>1.66</v>
+        <v>29302</v>
+      </c>
+      <c r="B467" s="5" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>28865</v>
-      </c>
-      <c r="B468" s="2" t="n">
-        <v>4.07</v>
+        <v>29303</v>
+      </c>
+      <c r="B468" s="4" t="n">
+        <v>7.47</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>28866</v>
-      </c>
-      <c r="B469" s="4" t="n">
-        <v>8.99</v>
+        <v>29304</v>
+      </c>
+      <c r="B469" s="5" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>28867</v>
-      </c>
-      <c r="B470" s="3" t="n">
-        <v>1.93</v>
+        <v>29305</v>
+      </c>
+      <c r="B470" s="4" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>28868</v>
+        <v>29306</v>
       </c>
       <c r="B471" s="3" t="n">
-        <v>1.43</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>28869</v>
-      </c>
-      <c r="B472" s="3" t="n">
-        <v>2.89</v>
+        <v>29307</v>
+      </c>
+      <c r="B472" s="5" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>28870</v>
-      </c>
-      <c r="B473" s="3" t="n">
-        <v>2.48</v>
+        <v>29308</v>
+      </c>
+      <c r="B473" s="5" t="n">
+        <v>3.87</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>28871</v>
+        <v>29310</v>
       </c>
       <c r="B474" s="3" t="n">
-        <v>1.56</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>28872</v>
-      </c>
-      <c r="B475" s="2" t="n">
-        <v>4.33</v>
+        <v>29311</v>
+      </c>
+      <c r="B475" s="3" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>28873</v>
-      </c>
-      <c r="B476" s="3" t="n">
-        <v>1.67</v>
+        <v>29312</v>
+      </c>
+      <c r="B476" s="5" t="n">
+        <v>3.79</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>28874</v>
-      </c>
-      <c r="B477" s="4" t="n">
-        <v>13.06</v>
+        <v>29313</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>6.06</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>28875</v>
-      </c>
-      <c r="B478" s="2" t="n">
-        <v>3.47</v>
+        <v>29314</v>
+      </c>
+      <c r="B478" s="3" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>28876</v>
-      </c>
-      <c r="B479" s="4" t="n">
-        <v>13.67</v>
+        <v>29315</v>
+      </c>
+      <c r="B479" s="5" t="n">
+        <v>3.02</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>28877</v>
-      </c>
-      <c r="B480" s="3" t="n">
-        <v>1.98</v>
+        <v>29316</v>
+      </c>
+      <c r="B480" s="4" t="n">
+        <v>7.02</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>28878</v>
+        <v>29317</v>
       </c>
       <c r="B481" s="3" t="n">
-        <v>2.11</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>28879</v>
-      </c>
-      <c r="B482" s="2" t="n">
-        <v>3.57</v>
+        <v>29318</v>
+      </c>
+      <c r="B482" s="4" t="n">
+        <v>11.19</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>28880</v>
-      </c>
-      <c r="B483" s="5" t="n">
-        <v>6.98</v>
+        <v>29319</v>
+      </c>
+      <c r="B483" s="4" t="n">
+        <v>7.64</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>28881</v>
-      </c>
-      <c r="B484" s="3" t="n">
-        <v>2.77</v>
+        <v>29320</v>
+      </c>
+      <c r="B484" s="4" t="n">
+        <v>48.34</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>28882</v>
-      </c>
-      <c r="B485" s="2" t="n">
-        <v>3.54</v>
+        <v>29321</v>
+      </c>
+      <c r="B485" s="3" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>28883</v>
+        <v>29322</v>
       </c>
       <c r="B486" s="4" t="n">
-        <v>14.81</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>28884</v>
-      </c>
-      <c r="B487" s="3" t="n">
-        <v>2.48</v>
+        <v>29323</v>
+      </c>
+      <c r="B487" s="5" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>28885</v>
-      </c>
-      <c r="B488" s="2" t="n">
-        <v>3.11</v>
+        <v>29324</v>
+      </c>
+      <c r="B488" s="4" t="n">
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>28886</v>
-      </c>
-      <c r="B489" s="4" t="n">
-        <v>12.51</v>
+        <v>29325</v>
+      </c>
+      <c r="B489" s="3" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>28887</v>
-      </c>
-      <c r="B490" s="4" t="n">
-        <v>30.62</v>
+        <v>29326</v>
+      </c>
+      <c r="B490" s="3" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>28888</v>
+        <v>29327</v>
       </c>
       <c r="B491" s="3" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>28889</v>
+        <v>29328</v>
       </c>
       <c r="B492" s="3" t="n">
-        <v>2.95</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>28890</v>
+        <v>29329</v>
       </c>
       <c r="B493" s="2" t="n">
-        <v>3.44</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>28891</v>
+        <v>29330</v>
       </c>
       <c r="B494" s="3" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>28892</v>
-      </c>
-      <c r="B495" s="3" t="n">
-        <v>1.61</v>
+        <v>29331</v>
+      </c>
+      <c r="B495" s="5" t="n">
+        <v>3.79</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>28893</v>
-      </c>
-      <c r="B496" s="4" t="n">
-        <v>7.22</v>
+        <v>29332</v>
+      </c>
+      <c r="B496" s="3" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>28894</v>
-      </c>
-      <c r="B497" s="2" t="n">
-        <v>3.63</v>
+        <v>29333</v>
+      </c>
+      <c r="B497" s="3" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>28895</v>
-      </c>
-      <c r="B498" s="2" t="n">
-        <v>3.41</v>
+        <v>29334</v>
+      </c>
+      <c r="B498" s="3" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>28896</v>
-      </c>
-      <c r="B499" s="2" t="n">
-        <v>4.84</v>
+        <v>29335</v>
+      </c>
+      <c r="B499" s="3" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>28897</v>
-      </c>
-      <c r="B500" s="2" t="n">
-        <v>3.73</v>
+        <v>29336</v>
+      </c>
+      <c r="B500" s="5" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>28898</v>
+        <v>29337</v>
       </c>
       <c r="B501" s="3" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>28899</v>
+        <v>29338</v>
       </c>
       <c r="B502" s="4" t="n">
-        <v>15.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>28900</v>
-      </c>
-      <c r="B503" s="3" t="n">
-        <v>2.94</v>
+        <v>29339</v>
+      </c>
+      <c r="B503" s="4" t="n">
+        <v>29.78</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>28901</v>
+        <v>29340</v>
       </c>
       <c r="B504" s="3" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>28902</v>
-      </c>
-      <c r="B505" s="2" t="n">
-        <v>3.4</v>
+        <v>29341</v>
+      </c>
+      <c r="B505" s="4" t="n">
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>28903</v>
+        <v>29342</v>
       </c>
       <c r="B506" s="3" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>28904</v>
+        <v>29343</v>
       </c>
       <c r="B507" s="3" t="n">
-        <v>2.79</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>28905</v>
-      </c>
-      <c r="B508" s="2" t="n">
-        <v>3.27</v>
+        <v>29344</v>
+      </c>
+      <c r="B508" s="4" t="n">
+        <v>10.69</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>28906</v>
+        <v>29345</v>
       </c>
       <c r="B509" s="3" t="n">
-        <v>2.98</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>28907</v>
-      </c>
-      <c r="B510" s="2" t="n">
-        <v>4.13</v>
+        <v>29346</v>
+      </c>
+      <c r="B510" s="3" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>28908</v>
-      </c>
-      <c r="B511" s="2" t="n">
-        <v>4.32</v>
+        <v>29347</v>
+      </c>
+      <c r="B511" s="5" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>28909</v>
-      </c>
-      <c r="B512" s="3" t="n">
-        <v>1.32</v>
+        <v>29348</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>5.24</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>28910</v>
-      </c>
-      <c r="B513" s="3" t="n">
-        <v>2.66</v>
+        <v>29349</v>
+      </c>
+      <c r="B513" s="5" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>28911</v>
+        <v>29350</v>
       </c>
       <c r="B514" s="3" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>28912</v>
-      </c>
-      <c r="B515" s="2" t="n">
-        <v>4.67</v>
+        <v>29351</v>
+      </c>
+      <c r="B515" s="3" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>28913</v>
+        <v>29352</v>
       </c>
       <c r="B516" s="3" t="n">
-        <v>1.84</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>28914</v>
-      </c>
-      <c r="B517" s="3" t="n">
-        <v>1.25</v>
+        <v>29353</v>
+      </c>
+      <c r="B517" s="5" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>28915</v>
-      </c>
-      <c r="B518" s="2" t="n">
-        <v>3.44</v>
+        <v>29354</v>
+      </c>
+      <c r="B518" s="5" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>28916</v>
+        <v>29355</v>
       </c>
       <c r="B519" s="3" t="n">
-        <v>1.59</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>28917</v>
+        <v>29356</v>
       </c>
       <c r="B520" s="3" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>28918</v>
+        <v>29357</v>
       </c>
       <c r="B521" s="3" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>28919</v>
+        <v>29358</v>
       </c>
       <c r="B522" s="3" t="n">
-        <v>2.68</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>28920</v>
-      </c>
-      <c r="B523" s="3" t="n">
-        <v>2.13</v>
+        <v>29359</v>
+      </c>
+      <c r="B523" s="5" t="n">
+        <v>4.61</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>28921</v>
+        <v>29360</v>
       </c>
       <c r="B524" s="3" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>28922</v>
-      </c>
-      <c r="B525" s="2" t="n">
-        <v>3.23</v>
+        <v>29361</v>
+      </c>
+      <c r="B525" s="3" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>28923</v>
+        <v>29362</v>
       </c>
       <c r="B526" s="3" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>28924</v>
-      </c>
-      <c r="B527" s="2" t="n">
-        <v>3.91</v>
+        <v>29363</v>
+      </c>
+      <c r="B527" s="3" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>28925</v>
-      </c>
-      <c r="B528" s="2" t="n">
-        <v>4.43</v>
+        <v>29364</v>
+      </c>
+      <c r="B528" s="4" t="n">
+        <v>20.58</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>28926</v>
+        <v>29365</v>
       </c>
       <c r="B529" s="3" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>28927</v>
-      </c>
-      <c r="B530" s="3" t="n">
-        <v>2.52</v>
+        <v>29366</v>
+      </c>
+      <c r="B530" s="4" t="n">
+        <v>42.25</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>28928</v>
+        <v>29367</v>
       </c>
       <c r="B531" s="3" t="n">
-        <v>0.67</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>28929</v>
-      </c>
-      <c r="B532" s="5" t="n">
-        <v>5.96</v>
+        <v>29368</v>
+      </c>
+      <c r="B532" s="3" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>28930</v>
+        <v>29369</v>
       </c>
       <c r="B533" s="3" t="n">
-        <v>2.23</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>28931</v>
+        <v>29370</v>
       </c>
       <c r="B534" s="3" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>28932</v>
+        <v>29371</v>
       </c>
       <c r="B535" s="3" t="n">
-        <v>2.24</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>28933</v>
-      </c>
-      <c r="B536" s="2" t="n">
-        <v>3.95</v>
+        <v>29372</v>
+      </c>
+      <c r="B536" s="5" t="n">
+        <v>3.17</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>28934</v>
-      </c>
-      <c r="B537" s="2" t="n">
-        <v>4.19</v>
+        <v>29373</v>
+      </c>
+      <c r="B537" s="3" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>28935</v>
-      </c>
-      <c r="B538" s="2" t="n">
-        <v>4.87</v>
+        <v>29374</v>
+      </c>
+      <c r="B538" s="3" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>28936</v>
+        <v>29375</v>
       </c>
       <c r="B539" s="3" t="n">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>28937</v>
+        <v>29376</v>
       </c>
       <c r="B540" s="5" t="n">
-        <v>5.42</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>28938</v>
-      </c>
-      <c r="B541" s="4" t="n">
-        <v>14.74</v>
+        <v>29377</v>
+      </c>
+      <c r="B541" s="5" t="n">
+        <v>4.97</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>28939</v>
+        <v>29378</v>
       </c>
       <c r="B542" s="3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>28940</v>
+        <v>29379</v>
       </c>
       <c r="B543" s="3" t="n">
-        <v>1.16</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>28941</v>
-      </c>
-      <c r="B544" s="3" t="n">
-        <v>2.01</v>
+        <v>29380</v>
+      </c>
+      <c r="B544" s="5" t="n">
+        <v>3.88</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>28942</v>
-      </c>
-      <c r="B545" s="3" t="n">
-        <v>2.26</v>
+        <v>29381</v>
+      </c>
+      <c r="B545" s="4" t="n">
+        <v>7.43</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>28943</v>
+        <v>29382</v>
       </c>
       <c r="B546" s="4" t="n">
-        <v>8.18</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>28944</v>
+        <v>29383</v>
       </c>
       <c r="B547" s="4" t="n">
-        <v>12.49</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>28945</v>
+        <v>29384</v>
       </c>
       <c r="B548" s="3" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>28946</v>
-      </c>
-      <c r="B549" s="3" t="n">
-        <v>2.13</v>
+        <v>29385</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>28947</v>
+        <v>29386</v>
       </c>
       <c r="B550" s="3" t="n">
-        <v>2.41</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>28948</v>
-      </c>
-      <c r="B551" s="4" t="n">
-        <v>11.16</v>
+        <v>29387</v>
+      </c>
+      <c r="B551" s="5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>29388</v>
+      </c>
+      <c r="B552" s="3" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>29389</v>
+      </c>
+      <c r="B553" s="3" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>29390</v>
+      </c>
+      <c r="B554" s="3" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>29391</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>29392</v>
+      </c>
+      <c r="B556" s="5" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>29393</v>
+      </c>
+      <c r="B557" s="3" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>29394</v>
+      </c>
+      <c r="B558" s="5" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>29395</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>29396</v>
+      </c>
+      <c r="B560" s="3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>29397</v>
+      </c>
+      <c r="B561" s="4" t="n">
+        <v>58.93</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>29398</v>
+      </c>
+      <c r="B562" s="5" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>29399</v>
+      </c>
+      <c r="B563" s="4" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>29400</v>
+      </c>
+      <c r="B564" s="3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>29401</v>
+      </c>
+      <c r="B565" s="3" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>29402</v>
+      </c>
+      <c r="B566" s="3" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>29403</v>
+      </c>
+      <c r="B567" s="4" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>29404</v>
+      </c>
+      <c r="B568" s="5" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>29405</v>
+      </c>
+      <c r="B569" s="3" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>29406</v>
+      </c>
+      <c r="B570" s="5" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>29407</v>
+      </c>
+      <c r="B571" s="4" t="n">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>29408</v>
+      </c>
+      <c r="B572" s="3" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>29409</v>
+      </c>
+      <c r="B573" s="4" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>29410</v>
+      </c>
+      <c r="B574" s="3" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>29411</v>
+      </c>
+      <c r="B575" s="3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>29412</v>
+      </c>
+      <c r="B576" s="3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>29413</v>
+      </c>
+      <c r="B577" s="5" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>29414</v>
+      </c>
+      <c r="B578" s="3" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>29415</v>
+      </c>
+      <c r="B579" s="3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>29416</v>
+      </c>
+      <c r="B580" s="3" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>29417</v>
+      </c>
+      <c r="B581" s="5" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>29419</v>
+      </c>
+      <c r="B582" s="4" t="n">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>29420</v>
+      </c>
+      <c r="B583" s="3" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>29421</v>
+      </c>
+      <c r="B584" s="3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>29422</v>
+      </c>
+      <c r="B585" s="3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>29423</v>
+      </c>
+      <c r="B586" s="3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>29424</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>29425</v>
+      </c>
+      <c r="B588" s="3" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>29426</v>
+      </c>
+      <c r="B589" s="3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>29427</v>
+      </c>
+      <c r="B590" s="5" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>29428</v>
+      </c>
+      <c r="B591" s="4" t="n">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>29517</v>
+      </c>
+      <c r="B592" s="4" t="n">
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>
